--- a/output/zamienie/2020/sheets/year_2020.xlsx
+++ b/output/zamienie/2020/sheets/year_2020.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,159 +481,113 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25.10967741935484</v>
+        <v>38.72802290962264</v>
       </c>
       <c r="C2" t="n">
-        <v>19.7516129032258</v>
+        <v>37.82031467453576</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.41724137931035</v>
+        <v>38.37905718801527</v>
       </c>
       <c r="C3" t="n">
-        <v>15.27931034482759</v>
+        <v>37.21721310368516</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.23225806451613</v>
+        <v>41.05488287226257</v>
       </c>
       <c r="C4" t="n">
-        <v>10.16451612903226</v>
+        <v>36.25070695544533</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.773333333333333</v>
+        <v>48.3</v>
       </c>
       <c r="C5" t="n">
-        <v>3.89</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>4.816129032258065</v>
+        <v>37.57362061855765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8032258064516129</v>
+        <v>35.33788730291392</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>8.630000000000001</v>
+        <v>35.64326954666828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9933333333333334</v>
+        <v>35.36986454899081</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>12.16774193548387</v>
+        <v>37.9231203439938</v>
       </c>
       <c r="C8" t="n">
-        <v>7.758064516129033</v>
+        <v>31.87632559835924</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>17.01612903225806</v>
+        <v>36.05609825470846</v>
       </c>
       <c r="C9" t="n">
-        <v>8.287096774193548</v>
+        <v>34.4597437606334</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>21.20666666666666</v>
+        <v>33.35881636374494</v>
       </c>
       <c r="C10" t="n">
-        <v>5.266666666666667</v>
+        <v>36.22844000127495</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>24.13225806451613</v>
+        <v>34.98665747318617</v>
       </c>
       <c r="C11" t="n">
-        <v>11.86451612903226</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.793333333333331</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.873333333333335</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.01290322580645</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20.81290322580645</v>
+        <v>37.62004016694156</v>
       </c>
     </row>
   </sheetData>
